--- a/forms_data.xlsx
+++ b/forms_data.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Rank each of the following pitches, starting with your most-preferred project at the top of the list.</t>
+    <t xml:space="preserve">Rank each of the following, with your most preferred item at the top</t>
   </si>
   <si>
     <t xml:space="preserve">aa</t>
@@ -223,7 +223,7 @@
     <tableColumn id="3" name="Completion time"/>
     <tableColumn id="4" name="Email"/>
     <tableColumn id="5" name="Name"/>
-    <tableColumn id="6" name="Rank each of the following pitches, starting with your most-preferred project at the top of the list."/>
+    <tableColumn id="6" name="Rank each of the following, with your most preferred item at the top"/>
   </tableColumns>
 </table>
 </file>
@@ -236,10 +236,10 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="20"/>
   </cols>
